--- a/beautify_api/8.0.0/aspnet-core/src/BanHangBeautify.Web.Host/wwwroot/ExcelTemplate/BaoCaoBanHangChiTiet_Export_Template.xlsx
+++ b/beautify_api/8.0.0/aspnet-core/src/BanHangBeautify.Web.Host/wwwroot/ExcelTemplate/BaoCaoBanHangChiTiet_Export_Template.xlsx
@@ -32,31 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>HoTen</t>
-  </si>
-  <si>
-    <t>NgaySinh</t>
-  </si>
-  <si>
-    <t>SoDienThoai</t>
-  </si>
-  <si>
-    <t>CanCuocCongDan</t>
-  </si>
-  <si>
-    <t>DiaChi</t>
-  </si>
-  <si>
-    <t>TenTinhThanh</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>NgayBatDauLamViec</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Ngày lập</t>
   </si>
@@ -259,38 +235,38 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -578,16 +554,16 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="25" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="27" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" style="2" customWidth="1"/>
     <col min="8" max="9" width="19.140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" style="2" customWidth="1"/>
@@ -596,42 +572,17 @@
     <col min="13" max="13" width="24" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:91" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:91" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:91" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -673,34 +624,34 @@
     </row>
     <row r="4" spans="1:91" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="J4" s="17" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="10"/>
@@ -788,9 +739,9 @@
       <c r="A5" s="18"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -832,9 +783,9 @@
     <row r="6" spans="1:91" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="30"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -875,9 +826,9 @@
     <row r="7" spans="1:91" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="30"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -918,9 +869,9 @@
     <row r="8" spans="1:91" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -959,9 +910,9 @@
     <row r="9" spans="1:91" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="30"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -1000,9 +951,9 @@
     <row r="10" spans="1:91" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="30"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -1041,9 +992,9 @@
     <row r="11" spans="1:91" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="30"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -1082,9 +1033,9 @@
     <row r="12" spans="1:91" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="30"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -1123,9 +1074,9 @@
     <row r="13" spans="1:91" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="30"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -1164,9 +1115,9 @@
     <row r="14" spans="1:91" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="30"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -1205,9 +1156,9 @@
     <row r="15" spans="1:91" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="30"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -1215,9 +1166,9 @@
     <row r="16" spans="1:91" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="30"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -1225,9 +1176,9 @@
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="30"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="29"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -1235,9 +1186,9 @@
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="30"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="29"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -1245,9 +1196,9 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="30"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="29"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -1255,9 +1206,9 @@
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="30"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="29"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -1265,9 +1216,9 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="30"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="29"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -1275,9 +1226,9 @@
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="30"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="29"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -1285,9 +1236,9 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="30"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="29"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -1295,9 +1246,9 @@
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="15"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="30"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="29"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -1305,9 +1256,9 @@
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="30"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="29"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -1315,9 +1266,9 @@
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="15"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="30"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="29"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -1325,9 +1276,9 @@
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="30"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="29"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -1335,9 +1286,9 @@
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="30"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="29"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -1345,9 +1296,9 @@
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="30"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="29"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -1355,9 +1306,9 @@
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="15"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="30"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="29"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -1365,9 +1316,9 @@
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="15"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="30"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="29"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -1375,9 +1326,9 @@
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="15"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="30"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="29"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -1385,9 +1336,9 @@
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="15"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="30"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="29"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -1395,9 +1346,9 @@
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="15"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="30"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="29"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -1405,9 +1356,9 @@
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="15"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="30"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="29"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -1415,9 +1366,9 @@
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="15"/>
       <c r="C36" s="7"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="30"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="29"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
@@ -1425,9 +1376,9 @@
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="15"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="30"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="29"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -1435,9 +1386,9 @@
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="15"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="30"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="29"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -1445,9 +1396,9 @@
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="15"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="30"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="29"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -1455,9 +1406,9 @@
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="15"/>
       <c r="C40" s="7"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="30"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="29"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
@@ -1465,9 +1416,9 @@
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="15"/>
       <c r="C41" s="7"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="30"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="29"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -1475,9 +1426,9 @@
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="15"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="30"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="29"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -1485,9 +1436,9 @@
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="15"/>
       <c r="C43" s="7"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="30"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="29"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -1495,9 +1446,9 @@
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="15"/>
       <c r="C44" s="7"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="30"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="29"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
@@ -1505,9 +1456,9 @@
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="15"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="30"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="29"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -1515,9 +1466,9 @@
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="15"/>
       <c r="C46" s="7"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="30"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="29"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -1525,9 +1476,9 @@
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="15"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="30"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="29"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -1535,9 +1486,9 @@
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="15"/>
       <c r="C48" s="7"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="30"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="29"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -1545,9 +1496,9 @@
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="15"/>
       <c r="C49" s="7"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="30"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="29"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -1555,9 +1506,9 @@
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="15"/>
       <c r="C50" s="7"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="30"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="29"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -1565,9 +1516,9 @@
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="15"/>
       <c r="C51" s="7"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="30"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="29"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -1575,9 +1526,9 @@
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="15"/>
       <c r="C52" s="7"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="30"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="29"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -1585,9 +1536,9 @@
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="15"/>
       <c r="C53" s="7"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="30"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="29"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
@@ -1595,9 +1546,9 @@
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="15"/>
       <c r="C54" s="7"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="30"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="29"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
@@ -1605,9 +1556,9 @@
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="15"/>
       <c r="C55" s="7"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="30"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="29"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -1615,9 +1566,9 @@
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="15"/>
       <c r="C56" s="7"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="30"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="29"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
@@ -1625,9 +1576,9 @@
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="15"/>
       <c r="C57" s="7"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="30"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="29"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
@@ -1635,9 +1586,9 @@
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="15"/>
       <c r="C58" s="7"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="30"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="29"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -1645,9 +1596,9 @@
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="15"/>
       <c r="C59" s="7"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="30"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="29"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
@@ -1655,9 +1606,9 @@
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="15"/>
       <c r="C60" s="7"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="30"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="29"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
@@ -1665,9 +1616,9 @@
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="15"/>
       <c r="C61" s="7"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="30"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="29"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
@@ -1675,9 +1626,9 @@
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="15"/>
       <c r="C62" s="7"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="30"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="29"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
@@ -1685,9 +1636,9 @@
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="15"/>
       <c r="C63" s="7"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="30"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="29"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
@@ -1695,9 +1646,9 @@
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="15"/>
       <c r="C64" s="7"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="30"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="29"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
@@ -1705,9 +1656,9 @@
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="15"/>
       <c r="C65" s="7"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="30"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="29"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
@@ -1715,9 +1666,9 @@
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="15"/>
       <c r="C66" s="7"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="30"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="29"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
@@ -1725,9 +1676,9 @@
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="15"/>
       <c r="C67" s="7"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="30"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="29"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
@@ -1735,9 +1686,9 @@
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="15"/>
       <c r="C68" s="7"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="30"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="29"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
@@ -1745,9 +1696,9 @@
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="15"/>
       <c r="C69" s="7"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="30"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="29"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
@@ -1755,9 +1706,9 @@
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="15"/>
       <c r="C70" s="7"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="30"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="29"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
@@ -1765,9 +1716,9 @@
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="15"/>
       <c r="C71" s="7"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="30"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="29"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
@@ -1775,9 +1726,9 @@
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="15"/>
       <c r="C72" s="7"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="30"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="29"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
@@ -1785,9 +1736,9 @@
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="15"/>
       <c r="C73" s="7"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="30"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="29"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
@@ -1795,9 +1746,9 @@
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="15"/>
       <c r="C74" s="7"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="30"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="29"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
@@ -1805,9 +1756,9 @@
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="15"/>
       <c r="C75" s="7"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="30"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="29"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
@@ -1815,9 +1766,9 @@
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="15"/>
       <c r="C76" s="7"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="30"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="29"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
@@ -1825,9 +1776,9 @@
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="15"/>
       <c r="C77" s="7"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="30"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="29"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
@@ -1835,9 +1786,9 @@
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="15"/>
       <c r="C78" s="7"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="30"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="29"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
@@ -1845,9 +1796,9 @@
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="15"/>
       <c r="C79" s="7"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="30"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="29"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
@@ -1855,9 +1806,9 @@
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="15"/>
       <c r="C80" s="7"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="30"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="29"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
@@ -1865,9 +1816,9 @@
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="15"/>
       <c r="C81" s="7"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="30"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="29"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
@@ -1875,9 +1826,9 @@
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="15"/>
       <c r="C82" s="7"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="30"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="29"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
@@ -1885,9 +1836,9 @@
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="15"/>
       <c r="C83" s="7"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="30"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="29"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
@@ -1895,9 +1846,9 @@
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="15"/>
       <c r="C84" s="7"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="30"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="29"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
@@ -1905,9 +1856,9 @@
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="15"/>
       <c r="C85" s="7"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="30"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="29"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
@@ -1915,9 +1866,9 @@
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="15"/>
       <c r="C86" s="7"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="30"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="29"/>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
@@ -1925,9 +1876,9 @@
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="15"/>
       <c r="C87" s="7"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="30"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="29"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>

--- a/beautify_api/8.0.0/aspnet-core/src/BanHangBeautify.Web.Host/wwwroot/ExcelTemplate/BaoCaoBanHangChiTiet_Export_Template.xlsx
+++ b/beautify_api/8.0.0/aspnet-core/src/BanHangBeautify.Web.Host/wwwroot/ExcelTemplate/BaoCaoBanHangChiTiet_Export_Template.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSOFT\Open beauty\lucky_beauty\beautify_api\8.0.0\aspnet-core\src\BanHangBeautify.Web.Host\wwwroot\ExcelTemplate\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="DanhSach" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Ngày lập</t>
   </si>
@@ -75,12 +70,15 @@
   <si>
     <t>Tổng cộng</t>
   </si>
+  <si>
+    <t>Giá vốn</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,24 +312,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -394,7 +392,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -429,7 +427,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -606,23 +604,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CO86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CP86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" style="11" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" style="15" customWidth="1"/>
@@ -632,52 +630,53 @@
     <col min="6" max="6" width="16.5703125" style="11" customWidth="1"/>
     <col min="7" max="7" width="31.42578125" style="11" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="19" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" style="19" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" style="19" customWidth="1"/>
-    <col min="13" max="13" width="24.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="24" style="1" customWidth="1"/>
+    <col min="9" max="10" width="23.42578125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" style="19" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="24" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:94" ht="41.25" customHeight="1">
+      <c r="A1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:93" s="36" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="35"/>
-    </row>
-    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="O3" s="5"/>
-      <c r="P3" s="6"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:94" s="34" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+    </row>
+    <row r="3" spans="1:94">
+      <c r="P3" s="5"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -709,8 +708,9 @@
       <c r="AS3" s="6"/>
       <c r="AT3" s="6"/>
       <c r="AU3" s="6"/>
-    </row>
-    <row r="4" spans="1:93" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV3" s="6"/>
+    </row>
+    <row r="4" spans="1:94" s="3" customFormat="1" ht="30.75" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
@@ -739,17 +739,19 @@
         <v>8</v>
       </c>
       <c r="J4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="L4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="M4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="9"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="8"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
@@ -828,8 +830,9 @@
       <c r="CM4" s="9"/>
       <c r="CN4" s="9"/>
       <c r="CO4" s="9"/>
-    </row>
-    <row r="5" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="CP4" s="9"/>
+    </row>
+    <row r="5" spans="1:94">
       <c r="A5" s="12"/>
       <c r="B5" s="16"/>
       <c r="C5" s="12"/>
@@ -841,8 +844,8 @@
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="6"/>
+      <c r="L5" s="22"/>
+      <c r="P5" s="5"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
@@ -874,8 +877,9 @@
       <c r="AS5" s="6"/>
       <c r="AT5" s="6"/>
       <c r="AU5" s="6"/>
-    </row>
-    <row r="6" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="AV5" s="6"/>
+    </row>
+    <row r="6" spans="1:94">
       <c r="A6" s="12"/>
       <c r="B6" s="16"/>
       <c r="C6" s="12"/>
@@ -887,8 +891,8 @@
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="6"/>
+      <c r="L6" s="22"/>
+      <c r="P6" s="5"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
@@ -920,8 +924,9 @@
       <c r="AS6" s="6"/>
       <c r="AT6" s="6"/>
       <c r="AU6" s="6"/>
-    </row>
-    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="AV6" s="6"/>
+    </row>
+    <row r="7" spans="1:94">
       <c r="A7" s="12"/>
       <c r="B7" s="16"/>
       <c r="C7" s="12"/>
@@ -933,8 +938,8 @@
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="6"/>
+      <c r="L7" s="22"/>
+      <c r="P7" s="5"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
@@ -964,8 +969,9 @@
       <c r="AQ7" s="6"/>
       <c r="AR7" s="6"/>
       <c r="AS7" s="6"/>
-    </row>
-    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="AT7" s="6"/>
+    </row>
+    <row r="8" spans="1:94">
       <c r="A8" s="12"/>
       <c r="B8" s="16"/>
       <c r="C8" s="12"/>
@@ -977,8 +983,8 @@
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="6"/>
+      <c r="L8" s="22"/>
+      <c r="P8" s="5"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
@@ -1008,8 +1014,9 @@
       <c r="AQ8" s="6"/>
       <c r="AR8" s="6"/>
       <c r="AS8" s="6"/>
-    </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="AT8" s="6"/>
+    </row>
+    <row r="9" spans="1:94">
       <c r="A9" s="12"/>
       <c r="B9" s="16"/>
       <c r="C9" s="12"/>
@@ -1021,8 +1028,8 @@
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="6"/>
+      <c r="L9" s="22"/>
+      <c r="P9" s="5"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -1052,23 +1059,24 @@
       <c r="AQ9" s="6"/>
       <c r="AR9" s="6"/>
       <c r="AS9" s="6"/>
-    </row>
-    <row r="10" spans="1:93" s="30" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="AT9" s="6"/>
+    </row>
+    <row r="10" spans="1:94" s="30" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A10" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="24">
         <f>SUM(H$5:H9)</f>
         <v>0</v>
       </c>
       <c r="I10" s="25">
-        <f>SUM(I$5:I9)</f>
+        <f>I9</f>
         <v>0</v>
       </c>
       <c r="J10" s="25">
@@ -1083,10 +1091,13 @@
         <f>SUM(L$5:L9)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="29"/>
+      <c r="M10" s="25">
+        <f>SUM(M$5:M9)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="26"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="28"/>
       <c r="Q10" s="29"/>
       <c r="R10" s="29"/>
       <c r="S10" s="29"/>
@@ -1116,8 +1127,9 @@
       <c r="AQ10" s="29"/>
       <c r="AR10" s="29"/>
       <c r="AS10" s="29"/>
-    </row>
-    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="AT10" s="29"/>
+    </row>
+    <row r="11" spans="1:94">
       <c r="A11" s="12"/>
       <c r="B11" s="16"/>
       <c r="C11" s="12"/>
@@ -1129,8 +1141,8 @@
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="6"/>
+      <c r="L11" s="22"/>
+      <c r="P11" s="5"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -1160,8 +1172,9 @@
       <c r="AQ11" s="6"/>
       <c r="AR11" s="6"/>
       <c r="AS11" s="6"/>
-    </row>
-    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="AT11" s="6"/>
+    </row>
+    <row r="12" spans="1:94">
       <c r="A12" s="12"/>
       <c r="B12" s="16"/>
       <c r="C12" s="12"/>
@@ -1173,8 +1186,8 @@
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="6"/>
+      <c r="L12" s="22"/>
+      <c r="P12" s="5"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
@@ -1204,8 +1217,9 @@
       <c r="AQ12" s="6"/>
       <c r="AR12" s="6"/>
       <c r="AS12" s="6"/>
-    </row>
-    <row r="13" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="AT12" s="6"/>
+    </row>
+    <row r="13" spans="1:94">
       <c r="A13" s="12"/>
       <c r="B13" s="16"/>
       <c r="C13" s="12"/>
@@ -1217,8 +1231,8 @@
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="6"/>
+      <c r="L13" s="22"/>
+      <c r="P13" s="5"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
@@ -1248,8 +1262,9 @@
       <c r="AQ13" s="6"/>
       <c r="AR13" s="6"/>
       <c r="AS13" s="6"/>
-    </row>
-    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="AT13" s="6"/>
+    </row>
+    <row r="14" spans="1:94">
       <c r="A14" s="12"/>
       <c r="B14" s="16"/>
       <c r="C14" s="12"/>
@@ -1261,8 +1276,9 @@
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
-    </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:94">
       <c r="A15" s="12"/>
       <c r="B15" s="16"/>
       <c r="C15" s="12"/>
@@ -1274,8 +1290,9 @@
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
-    </row>
-    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:94">
       <c r="A16" s="12"/>
       <c r="B16" s="16"/>
       <c r="C16" s="12"/>
@@ -1287,8 +1304,9 @@
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="22"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="12"/>
       <c r="B17" s="16"/>
       <c r="C17" s="12"/>
@@ -1300,8 +1318,9 @@
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="12"/>
       <c r="B18" s="16"/>
       <c r="C18" s="12"/>
@@ -1313,8 +1332,9 @@
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="12"/>
       <c r="B19" s="16"/>
       <c r="C19" s="12"/>
@@ -1326,8 +1346,9 @@
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="12"/>
       <c r="B20" s="16"/>
       <c r="C20" s="12"/>
@@ -1339,8 +1360,9 @@
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="12"/>
       <c r="B21" s="16"/>
       <c r="C21" s="12"/>
@@ -1352,8 +1374,9 @@
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="12"/>
       <c r="B22" s="16"/>
       <c r="C22" s="12"/>
@@ -1365,8 +1388,9 @@
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="22"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="12"/>
       <c r="B23" s="16"/>
       <c r="C23" s="12"/>
@@ -1378,8 +1402,9 @@
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="22"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="12"/>
       <c r="B24" s="16"/>
       <c r="C24" s="12"/>
@@ -1391,8 +1416,9 @@
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="22"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="12"/>
       <c r="B25" s="16"/>
       <c r="C25" s="12"/>
@@ -1404,8 +1430,9 @@
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="22"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="12"/>
       <c r="B26" s="16"/>
       <c r="C26" s="12"/>
@@ -1417,8 +1444,9 @@
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="22"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="12"/>
       <c r="B27" s="16"/>
       <c r="C27" s="12"/>
@@ -1430,8 +1458,9 @@
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="22"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="12"/>
       <c r="B28" s="16"/>
       <c r="C28" s="12"/>
@@ -1443,8 +1472,9 @@
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="22"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="12"/>
       <c r="B29" s="16"/>
       <c r="C29" s="12"/>
@@ -1456,8 +1486,9 @@
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="22"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="12"/>
       <c r="B30" s="16"/>
       <c r="C30" s="12"/>
@@ -1469,8 +1500,9 @@
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="22"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="12"/>
       <c r="B31" s="16"/>
       <c r="C31" s="12"/>
@@ -1482,8 +1514,9 @@
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="22"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="12"/>
       <c r="B32" s="16"/>
       <c r="C32" s="12"/>
@@ -1495,8 +1528,9 @@
       <c r="I32" s="22"/>
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="22"/>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="12"/>
       <c r="B33" s="16"/>
       <c r="C33" s="12"/>
@@ -1508,8 +1542,9 @@
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="22"/>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="12"/>
       <c r="B34" s="16"/>
       <c r="C34" s="12"/>
@@ -1521,8 +1556,9 @@
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="22"/>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="12"/>
       <c r="B35" s="16"/>
       <c r="C35" s="12"/>
@@ -1534,8 +1570,9 @@
       <c r="I35" s="22"/>
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="22"/>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="12"/>
       <c r="B36" s="16"/>
       <c r="C36" s="12"/>
@@ -1547,8 +1584,9 @@
       <c r="I36" s="22"/>
       <c r="J36" s="22"/>
       <c r="K36" s="22"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="22"/>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="12"/>
       <c r="B37" s="16"/>
       <c r="C37" s="12"/>
@@ -1560,8 +1598,9 @@
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="22"/>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="12"/>
       <c r="B38" s="16"/>
       <c r="C38" s="12"/>
@@ -1573,8 +1612,9 @@
       <c r="I38" s="22"/>
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="22"/>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="12"/>
       <c r="B39" s="16"/>
       <c r="C39" s="12"/>
@@ -1586,8 +1626,9 @@
       <c r="I39" s="22"/>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="22"/>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="12"/>
       <c r="B40" s="16"/>
       <c r="C40" s="12"/>
@@ -1599,8 +1640,9 @@
       <c r="I40" s="22"/>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="22"/>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="12"/>
       <c r="B41" s="16"/>
       <c r="C41" s="12"/>
@@ -1612,8 +1654,9 @@
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" s="22"/>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="12"/>
       <c r="B42" s="16"/>
       <c r="C42" s="12"/>
@@ -1625,8 +1668,9 @@
       <c r="I42" s="22"/>
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="22"/>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="12"/>
       <c r="B43" s="16"/>
       <c r="C43" s="12"/>
@@ -1638,8 +1682,9 @@
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="22"/>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="12"/>
       <c r="B44" s="16"/>
       <c r="C44" s="12"/>
@@ -1651,8 +1696,9 @@
       <c r="I44" s="22"/>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="22"/>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="12"/>
       <c r="B45" s="16"/>
       <c r="C45" s="12"/>
@@ -1664,8 +1710,9 @@
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="22"/>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="12"/>
       <c r="B46" s="16"/>
       <c r="C46" s="12"/>
@@ -1677,8 +1724,9 @@
       <c r="I46" s="22"/>
       <c r="J46" s="22"/>
       <c r="K46" s="22"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="22"/>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="12"/>
       <c r="B47" s="16"/>
       <c r="C47" s="12"/>
@@ -1690,8 +1738,9 @@
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
       <c r="K47" s="22"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="22"/>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="12"/>
       <c r="B48" s="16"/>
       <c r="C48" s="12"/>
@@ -1703,8 +1752,9 @@
       <c r="I48" s="22"/>
       <c r="J48" s="22"/>
       <c r="K48" s="22"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="22"/>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="12"/>
       <c r="B49" s="16"/>
       <c r="C49" s="12"/>
@@ -1716,8 +1766,9 @@
       <c r="I49" s="22"/>
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="22"/>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="12"/>
       <c r="B50" s="16"/>
       <c r="C50" s="12"/>
@@ -1729,8 +1780,9 @@
       <c r="I50" s="22"/>
       <c r="J50" s="22"/>
       <c r="K50" s="22"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="22"/>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="12"/>
       <c r="B51" s="16"/>
       <c r="C51" s="12"/>
@@ -1742,8 +1794,9 @@
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
       <c r="K51" s="22"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="22"/>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="12"/>
       <c r="B52" s="16"/>
       <c r="C52" s="12"/>
@@ -1755,8 +1808,9 @@
       <c r="I52" s="22"/>
       <c r="J52" s="22"/>
       <c r="K52" s="22"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" s="22"/>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="12"/>
       <c r="B53" s="16"/>
       <c r="C53" s="12"/>
@@ -1768,8 +1822,9 @@
       <c r="I53" s="22"/>
       <c r="J53" s="22"/>
       <c r="K53" s="22"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" s="22"/>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="12"/>
       <c r="B54" s="16"/>
       <c r="C54" s="12"/>
@@ -1781,8 +1836,9 @@
       <c r="I54" s="22"/>
       <c r="J54" s="22"/>
       <c r="K54" s="22"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" s="22"/>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="12"/>
       <c r="B55" s="16"/>
       <c r="C55" s="12"/>
@@ -1794,8 +1850,9 @@
       <c r="I55" s="22"/>
       <c r="J55" s="22"/>
       <c r="K55" s="22"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55" s="22"/>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="12"/>
       <c r="B56" s="16"/>
       <c r="C56" s="12"/>
@@ -1807,8 +1864,9 @@
       <c r="I56" s="22"/>
       <c r="J56" s="22"/>
       <c r="K56" s="22"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56" s="22"/>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="12"/>
       <c r="B57" s="16"/>
       <c r="C57" s="12"/>
@@ -1820,8 +1878,9 @@
       <c r="I57" s="22"/>
       <c r="J57" s="22"/>
       <c r="K57" s="22"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57" s="22"/>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="12"/>
       <c r="B58" s="16"/>
       <c r="C58" s="12"/>
@@ -1833,8 +1892,9 @@
       <c r="I58" s="22"/>
       <c r="J58" s="22"/>
       <c r="K58" s="22"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58" s="22"/>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="12"/>
       <c r="B59" s="16"/>
       <c r="C59" s="12"/>
@@ -1846,8 +1906,9 @@
       <c r="I59" s="22"/>
       <c r="J59" s="22"/>
       <c r="K59" s="22"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59" s="22"/>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="12"/>
       <c r="B60" s="16"/>
       <c r="C60" s="12"/>
@@ -1859,8 +1920,9 @@
       <c r="I60" s="22"/>
       <c r="J60" s="22"/>
       <c r="K60" s="22"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60" s="22"/>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="12"/>
       <c r="B61" s="16"/>
       <c r="C61" s="12"/>
@@ -1872,8 +1934,9 @@
       <c r="I61" s="22"/>
       <c r="J61" s="22"/>
       <c r="K61" s="22"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61" s="22"/>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="12"/>
       <c r="B62" s="16"/>
       <c r="C62" s="12"/>
@@ -1885,8 +1948,9 @@
       <c r="I62" s="22"/>
       <c r="J62" s="22"/>
       <c r="K62" s="22"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" s="22"/>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="12"/>
       <c r="B63" s="16"/>
       <c r="C63" s="12"/>
@@ -1898,8 +1962,9 @@
       <c r="I63" s="22"/>
       <c r="J63" s="22"/>
       <c r="K63" s="22"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" s="22"/>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="12"/>
       <c r="B64" s="16"/>
       <c r="C64" s="12"/>
@@ -1911,8 +1976,9 @@
       <c r="I64" s="22"/>
       <c r="J64" s="22"/>
       <c r="K64" s="22"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64" s="22"/>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="12"/>
       <c r="B65" s="16"/>
       <c r="C65" s="12"/>
@@ -1924,8 +1990,9 @@
       <c r="I65" s="22"/>
       <c r="J65" s="22"/>
       <c r="K65" s="22"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65" s="22"/>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="12"/>
       <c r="B66" s="16"/>
       <c r="C66" s="12"/>
@@ -1937,8 +2004,9 @@
       <c r="I66" s="22"/>
       <c r="J66" s="22"/>
       <c r="K66" s="22"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" s="22"/>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="12"/>
       <c r="B67" s="16"/>
       <c r="C67" s="12"/>
@@ -1950,8 +2018,9 @@
       <c r="I67" s="22"/>
       <c r="J67" s="22"/>
       <c r="K67" s="22"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67" s="22"/>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="12"/>
       <c r="B68" s="16"/>
       <c r="C68" s="12"/>
@@ -1963,8 +2032,9 @@
       <c r="I68" s="22"/>
       <c r="J68" s="22"/>
       <c r="K68" s="22"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" s="22"/>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="12"/>
       <c r="B69" s="16"/>
       <c r="C69" s="12"/>
@@ -1976,8 +2046,9 @@
       <c r="I69" s="22"/>
       <c r="J69" s="22"/>
       <c r="K69" s="22"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69" s="22"/>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="12"/>
       <c r="B70" s="16"/>
       <c r="C70" s="12"/>
@@ -1989,8 +2060,9 @@
       <c r="I70" s="22"/>
       <c r="J70" s="22"/>
       <c r="K70" s="22"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70" s="22"/>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="12"/>
       <c r="B71" s="16"/>
       <c r="C71" s="12"/>
@@ -2002,8 +2074,9 @@
       <c r="I71" s="22"/>
       <c r="J71" s="22"/>
       <c r="K71" s="22"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71" s="22"/>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="12"/>
       <c r="B72" s="16"/>
       <c r="C72" s="12"/>
@@ -2015,8 +2088,9 @@
       <c r="I72" s="22"/>
       <c r="J72" s="22"/>
       <c r="K72" s="22"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72" s="22"/>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="12"/>
       <c r="B73" s="16"/>
       <c r="C73" s="12"/>
@@ -2028,8 +2102,9 @@
       <c r="I73" s="22"/>
       <c r="J73" s="22"/>
       <c r="K73" s="22"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73" s="22"/>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="12"/>
       <c r="B74" s="16"/>
       <c r="C74" s="12"/>
@@ -2041,8 +2116,9 @@
       <c r="I74" s="22"/>
       <c r="J74" s="22"/>
       <c r="K74" s="22"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74" s="22"/>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="12"/>
       <c r="B75" s="16"/>
       <c r="C75" s="12"/>
@@ -2054,8 +2130,9 @@
       <c r="I75" s="22"/>
       <c r="J75" s="22"/>
       <c r="K75" s="22"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75" s="22"/>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="12"/>
       <c r="B76" s="16"/>
       <c r="C76" s="12"/>
@@ -2067,8 +2144,9 @@
       <c r="I76" s="22"/>
       <c r="J76" s="22"/>
       <c r="K76" s="22"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76" s="22"/>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="12"/>
       <c r="B77" s="16"/>
       <c r="C77" s="12"/>
@@ -2080,8 +2158,9 @@
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
       <c r="K77" s="22"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77" s="22"/>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="12"/>
       <c r="B78" s="16"/>
       <c r="C78" s="12"/>
@@ -2093,8 +2172,9 @@
       <c r="I78" s="22"/>
       <c r="J78" s="22"/>
       <c r="K78" s="22"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78" s="22"/>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="12"/>
       <c r="B79" s="16"/>
       <c r="C79" s="12"/>
@@ -2106,8 +2186,9 @@
       <c r="I79" s="22"/>
       <c r="J79" s="22"/>
       <c r="K79" s="22"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79" s="22"/>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="12"/>
       <c r="B80" s="16"/>
       <c r="C80" s="12"/>
@@ -2119,8 +2200,9 @@
       <c r="I80" s="22"/>
       <c r="J80" s="22"/>
       <c r="K80" s="22"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80" s="22"/>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="12"/>
       <c r="B81" s="16"/>
       <c r="C81" s="12"/>
@@ -2132,8 +2214,9 @@
       <c r="I81" s="22"/>
       <c r="J81" s="22"/>
       <c r="K81" s="22"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81" s="22"/>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="12"/>
       <c r="B82" s="16"/>
       <c r="C82" s="12"/>
@@ -2145,8 +2228,9 @@
       <c r="I82" s="22"/>
       <c r="J82" s="22"/>
       <c r="K82" s="22"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82" s="22"/>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="12"/>
       <c r="B83" s="16"/>
       <c r="C83" s="12"/>
@@ -2158,8 +2242,9 @@
       <c r="I83" s="22"/>
       <c r="J83" s="22"/>
       <c r="K83" s="22"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83" s="22"/>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="12"/>
       <c r="B84" s="16"/>
       <c r="C84" s="12"/>
@@ -2171,8 +2256,9 @@
       <c r="I84" s="22"/>
       <c r="J84" s="22"/>
       <c r="K84" s="22"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84" s="22"/>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="12"/>
       <c r="B85" s="16"/>
       <c r="C85" s="12"/>
@@ -2184,8 +2270,9 @@
       <c r="I85" s="22"/>
       <c r="J85" s="22"/>
       <c r="K85" s="22"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85" s="22"/>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="12"/>
       <c r="B86" s="16"/>
       <c r="C86" s="12"/>
@@ -2197,11 +2284,12 @@
       <c r="I86" s="22"/>
       <c r="J86" s="22"/>
       <c r="K86" s="22"/>
+      <c r="L86" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A2:M2"/>
     <mergeCell ref="A10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
